--- a/downloaded_files/CMPS446_Tutorial-35547.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35547.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,15 +114,6 @@
     <x:t>Abdel Rahman Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1210252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله احمد عارف محمود الدسوقي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210253</x:t>
   </x:si>
   <x:si>
@@ -229,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>Moaz Mohamed Alsayed Hashem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210420</x:t>
@@ -398,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1077,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4143732986</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.5259538542</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.5259538542</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.664516088</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1571,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1606,70 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35547.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35547.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,13 +33,13 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1200787</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد على حسين صفيان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AHMED ALY HUSSEIN SAFIAN</x:t>
+    <x:t>4230138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد سامح صلاح مصيلحى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Sameh Salah</x:t>
   </x:si>
   <x:si>
     <x:t>1210200</x:t>
@@ -87,6 +87,15 @@
     <x:t>SALMA BAHAAELDIN ALI KHALED MOHAMED MAHMOUD</x:t>
   </x:si>
   <x:si>
+    <x:t>1220246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210146</x:t>
   </x:si>
   <x:si>
@@ -186,6 +195,15 @@
     <x:t>Mario Emad Saleh Fouad</x:t>
   </x:si>
   <x:si>
+    <x:t>1210388</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد أيمن السيد قرني الديب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ayman Elsayed Korany Eldeeb</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230167</x:t>
   </x:si>
   <x:si>
@@ -256,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohsen Samy Yakoub</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد العيسوي عبده النقيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mohamed Elessawy Abdou Elnaqieb</x:t>
   </x:si>
   <x:si>
     <x:t>1220299</x:t>
@@ -380,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -688,9 +715,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.580625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="50.760625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -771,7 +798,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6647093403</x:v>
+        <x:v>45927.5424221412</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -963,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.5261271991</x:v>
+        <x:v>45927.4996731829</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45906.5261271991</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45906.6644226042</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.5259538542</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45906.5259538542</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45927.5769967245</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.664516088</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1615,102 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45906.4148245023</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45927.5424539005</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35547.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35547.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Amr Magdy Mohamed Abo Elsoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم مجدى منير محمود العكام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Magdy Mounir</x:t>
   </x:si>
   <x:si>
     <x:t>1210111</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1278,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.5259538542</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.5259538542</x:v>
+        <x:v>45927.5769967245</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.5769967245</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.664516088</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45927.5424539005</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.5424539005</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35547.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35547.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Mario Emad Saleh Fouad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن محمد سيد خليفه احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Mohamed Sayed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1210388</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1333,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.5769967245</x:v>
+        <x:v>45928.5046525463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45927.5769967245</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.664516088</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.5424539005</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45927.5424539005</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35547.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35547.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Doha Abdel Fattah Mohamed Yosry ELBeltagy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن خالد محمد محمود جادالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdulrhman khalid mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>4220128</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1054,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.5259538542</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.5259538542</x:v>
+        <x:v>45928.5046525463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45928.5046525463</x:v>
+        <x:v>45927.5769967245</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.5769967245</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.664516088</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45927.5424539005</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.5424539005</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35547.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35547.xlsx
@@ -93,7 +93,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1210146</x:t>

--- a/downloaded_files/CMPS446_Tutorial-35547.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35547.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد سامح صلاح مصيلحى</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
+    <x:t>Ahmed Sameh Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1210200</x:t>
@@ -201,7 +201,7 @@
     <x:t>محمد اشرف محمد كرم الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Ashraf Mohamed</x:t>
+    <x:t>Mohamed Ashraf Mohamed Karam Allah</x:t>
   </x:si>
   <x:si>
     <x:t>1210299</x:t>

--- a/downloaded_files/CMPS446_Tutorial-35547.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35547.xlsx
@@ -93,7 +93,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEK DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1210146</x:t>
